--- a/LF/TAS/Cote d'Ivoire/Apr 2024/ci_lf_tas1_202404_3_fts_result.xlsx
+++ b/LF/TAS/Cote d'Ivoire/Apr 2024/ci_lf_tas1_202404_3_fts_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Cote d'Ivoire\Apr 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EBCEAF9-19E0-4A66-A821-287D6B0664CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDAE3FB-1D1C-4DE7-B67A-C39172C82431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="144">
   <si>
     <t>type</t>
   </si>
@@ -123,24 +123,6 @@
     <t>Le code a trois chiffre associé à chaque école</t>
   </si>
   <si>
-    <t>${d_cluster_name} != 'Autre'</t>
-  </si>
-  <si>
-    <t>d_cluster_name2</t>
-  </si>
-  <si>
-    <t>Sélectionner votre école</t>
-  </si>
-  <si>
-    <t>${d_cluster_name} = 'Autre'</t>
-  </si>
-  <si>
-    <t>d_cluster_id2</t>
-  </si>
-  <si>
-    <t>Sélectionner le code de votre école</t>
-  </si>
-  <si>
     <t>d_num</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
   </si>
   <si>
     <t xml:space="preserve">Entrer le code d'identification unique du test de diagnostic </t>
-  </si>
-  <si>
-    <t>if(${d_cluster_name} = 'Autre', concat(${d_district_id}, '-', ${d_cluster_id2}, '-' ,${d_num}), concat(${d_district_id}, '-', ${d_cluster_id}, '-' ,${d_num}))</t>
   </si>
   <si>
     <t>select_one sex_list</t>
@@ -470,9 +449,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>ci_lf_tas1_202404_3_fts_result</t>
-  </si>
-  <si>
     <t xml:space="preserve">allow_choice_duplicates </t>
   </si>
   <si>
@@ -482,7 +458,13 @@
     <t>Le code doit être un nombre à deux chiffres entre 999 et 10000</t>
   </si>
   <si>
-    <t>(2024 Avr) 3. TAS1 FL - Résultat FTS</t>
+    <t>(2024 Avr) 3. TAS1 &amp; 2 FL - Résultat FTS V2</t>
+  </si>
+  <si>
+    <t>ci_lf_tas1_202404_3_fts_result_v2</t>
+  </si>
+  <si>
+    <t>concat(${d_district_id}, '-', ${d_cluster_id}, '-' ,${d_num})</t>
   </si>
 </sst>
 </file>
@@ -601,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -633,9 +615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -951,13 +930,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -984,10 +963,10 @@
       <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -996,7 +975,7 @@
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="12" t="s">
@@ -1028,17 +1007,17 @@
       <c r="B2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="13"/>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H2" s="5"/>
@@ -1057,13 +1036,13 @@
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="13"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="25"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="24"/>
       <c r="H3" s="5"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13" t="s">
@@ -1080,13 +1059,13 @@
       <c r="B4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="25"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="24"/>
       <c r="H4" s="5"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13" t="s">
@@ -1103,13 +1082,13 @@
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="25"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="24"/>
       <c r="H5" s="5"/>
       <c r="I5" s="13"/>
       <c r="J5" s="13" t="s">
@@ -1126,13 +1105,13 @@
       <c r="B6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="25"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="24"/>
       <c r="H6" s="5"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
@@ -1149,22 +1128,20 @@
       <c r="B7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="F7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13" t="s">
         <v>20</v>
@@ -1173,60 +1150,76 @@
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:14" s="10" customFormat="1">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="31.5">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1">
+      <c r="A9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="10" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
       <c r="B9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="31.5">
+      <c r="C9" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="22"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4" t="s">
@@ -1236,98 +1229,98 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
     </row>
-    <row r="11" spans="1:14" s="3" customFormat="1">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="31.5">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1">
+      <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="3" customFormat="1">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1">
+      <c r="A13" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="31.5">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3" t="s">
+      <c r="D13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1">
       <c r="A14" s="13" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="5"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="13" t="s">
         <v>20</v>
@@ -1338,21 +1331,21 @@
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1">
       <c r="A15" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>59</v>
-      </c>
+      <c r="C15" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="22"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="5"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="13" t="s">
         <v>20</v>
@@ -1368,17 +1361,15 @@
       <c r="B16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="23"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="5"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="J16" s="13" t="s">
         <v>20</v>
       </c>
@@ -1388,22 +1379,22 @@
     </row>
     <row r="17" spans="1:13" s="3" customFormat="1">
       <c r="A17" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="22"/>
       <c r="H17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="5"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="13" t="s">
         <v>20</v>
       </c>
@@ -1411,45 +1402,45 @@
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1">
+    <row r="18" spans="1:13" s="3" customFormat="1" ht="63">
       <c r="A18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
+      <c r="C18" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="22"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="G18" s="22"/>
+      <c r="H18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" s="3" customFormat="1">
       <c r="A19" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="23"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I19" s="13"/>
       <c r="J19" s="13" t="s">
@@ -1459,72 +1450,74 @@
       <c r="L19" s="13"/>
       <c r="M19" s="13"/>
     </row>
-    <row r="20" spans="1:13" s="3" customFormat="1" ht="63">
+    <row r="20" spans="1:13">
       <c r="A20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="D20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="1:13" s="3" customFormat="1">
-      <c r="A21" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="23"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="6"/>
       <c r="J21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>59</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="13" t="s">
@@ -1539,158 +1532,148 @@
         <v>60</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
       <c r="H23" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="13" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>83</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="13" t="s">
-        <v>20</v>
-      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:13" s="11" customFormat="1">
+      <c r="A25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" s="3" customFormat="1">
+      <c r="A26" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="22"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="6" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" s="11" customFormat="1">
-      <c r="A27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C28" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-    </row>
-    <row r="28" spans="1:13" s="3" customFormat="1">
-      <c r="A28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="23"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="13" t="s">
-        <v>21</v>
+        <v>92</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>95</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="5" t="s">
-        <v>96</v>
-      </c>
+      <c r="H29" s="16"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
@@ -1699,62 +1682,22 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="13" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>98</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="17"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1780,7 +1723,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1789,189 +1732,189 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B12" t="s">
-        <v>128</v>
-      </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1987,8 +1930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2000,27 +1943,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>145</v>
-      </c>
       <c r="C2" s="10" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>20</v>
